--- a/Timings code.xlsx
+++ b/Timings code.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik.recio\Documents\GitHub\RFF_vs_PQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B095329B-2E6E-4144-A874-4D675EAFDA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6C74DF-B4E5-4AFE-A61E-418EC7C0D3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{7E53485C-EDC3-458F-86D5-AC3C46711E37}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{7E53485C-EDC3-458F-86D5-AC3C46711E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
   <si>
     <t>n</t>
   </si>
@@ -67,6 +69,54 @@
   <si>
     <t>L</t>
   </si>
+  <si>
+    <t>01. Circuit_1 1D 10.000</t>
+  </si>
+  <si>
+    <t>02. Circuit_2 1D 10.000</t>
+  </si>
+  <si>
+    <t>03. Circuit_1 1D 100.000</t>
+  </si>
+  <si>
+    <t>04. Circuit 3 10qubits 1D increasing L</t>
+  </si>
+  <si>
+    <t>05. Circuit 1, 2L qubits, 2D, increasing L</t>
+  </si>
+  <si>
+    <t>06. Circuit 3, 10qubits, max L, increasing dim_x</t>
+  </si>
+  <si>
+    <t>07. Circuit 3, Layers = 1, increasing dim_x and n</t>
+  </si>
+  <si>
+    <t>08. Circuit 3, Layers = 2, increasing dim_x and n</t>
+  </si>
+  <si>
+    <t>09. Cirquit_1qubit, 1D, increasing layers</t>
+  </si>
+  <si>
+    <t>10. Circuit_1qubit, 2D, increasing layers</t>
+  </si>
+  <si>
+    <t>11. Circuit_1qubit, 3D, increasing layers</t>
+  </si>
+  <si>
+    <t>Ordenar experiments, treuren conclusions, presentar conclusions</t>
+  </si>
+  <si>
+    <t>llegir i respondre a Ryan</t>
+  </si>
+  <si>
+    <t>llegir i modificar comments Johannes sobre apartats 6 i 7</t>
+  </si>
+  <si>
+    <t>dim_x</t>
+  </si>
+  <si>
+    <t>- Posar max, min RKHS + sqrt(omega**d)*max inf als plots de RKHS</t>
+  </si>
 </sst>
 </file>
 
@@ -81,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +141,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF82FF71"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6BBEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,23 +187,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD6BBEB"/>
+      <color rgb="FFB482DA"/>
+      <color rgb="FFA162D0"/>
+      <color rgb="FF82FF71"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3262,16 +3351,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9382DBBB-FDDA-408E-88C8-C9116EAA98FA}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43:I52"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="7" width="10.140625" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3299,7 +3387,7 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3327,7 +3415,7 @@
       <c r="H2" s="1">
         <v>8.2175925925925917E-4</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <f>HOUR(H2)*3600+MINUTE(H2)*60+SECOND(H2)</f>
         <v>71</v>
       </c>
@@ -3358,10 +3446,10 @@
         <v>0.81097222222222232</v>
       </c>
       <c r="H3" s="1">
-        <f>G3-F3</f>
+        <f t="shared" ref="H3:H22" si="3">G3-F3</f>
         <v>9.7222222222226318E-4</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <f>HOUR(H3)*3600+MINUTE(H3)*60+SECOND(H3)</f>
         <v>84</v>
       </c>
@@ -3392,11 +3480,11 @@
         <v>0.81234953703703694</v>
       </c>
       <c r="H4" s="1">
-        <f>G4-F4</f>
+        <f t="shared" si="3"/>
         <v>1.377314814814623E-3</v>
       </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I4:I52" si="3">HOUR(H4)*3600+MINUTE(H4)*60+SECOND(H4)</f>
+      <c r="I4">
+        <f t="shared" ref="I4:I52" si="4">HOUR(H4)*3600+MINUTE(H4)*60+SECOND(H4)</f>
         <v>119</v>
       </c>
     </row>
@@ -3426,11 +3514,11 @@
         <v>0.81422453703703701</v>
       </c>
       <c r="H5" s="1">
-        <f>G5-F5</f>
+        <f t="shared" si="3"/>
         <v>1.8750000000000711E-3</v>
       </c>
-      <c r="I5" s="2">
-        <f t="shared" si="3"/>
+      <c r="I5">
+        <f t="shared" si="4"/>
         <v>162</v>
       </c>
     </row>
@@ -3460,11 +3548,11 @@
         <v>0.81663194444444442</v>
       </c>
       <c r="H6" s="1">
-        <f>G6-F6</f>
+        <f t="shared" si="3"/>
         <v>2.4074074074074137E-3</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" si="3"/>
+      <c r="I6">
+        <f t="shared" si="4"/>
         <v>208</v>
       </c>
     </row>
@@ -3494,11 +3582,11 @@
         <v>0.81972222222222213</v>
       </c>
       <c r="H7" s="1">
-        <f>G7-F7</f>
+        <f t="shared" si="3"/>
         <v>3.0902777777777057E-3</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="3"/>
+      <c r="I7">
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
     </row>
@@ -3528,11 +3616,11 @@
         <v>0.82393518518518516</v>
       </c>
       <c r="H8" s="1">
-        <f>G8-F8</f>
+        <f t="shared" si="3"/>
         <v>4.2129629629630294E-3</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="3"/>
+      <c r="I8">
+        <f t="shared" si="4"/>
         <v>364</v>
       </c>
     </row>
@@ -3562,1368 +3650,1367 @@
         <v>0.82859953703703704</v>
       </c>
       <c r="H9" s="1">
-        <f>G9-F9</f>
+        <f t="shared" si="3"/>
         <v>4.6643518518518778E-3</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="3"/>
+      <c r="I9">
+        <f t="shared" si="4"/>
         <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>100000</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.49018518518518522</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.49612268518518521</v>
       </c>
-      <c r="H10" s="4">
-        <f>G10-F10</f>
+      <c r="H10" s="3">
+        <f t="shared" si="3"/>
         <v>5.9374999999999845E-3</v>
       </c>
-      <c r="I10" s="5">
-        <f t="shared" si="3"/>
+      <c r="I10" s="2">
+        <f t="shared" si="4"/>
         <v>513</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>100000</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" ref="F11:F22" si="4">G10</f>
+      <c r="F11" s="3">
+        <f t="shared" ref="F11:F22" si="5">G10</f>
         <v>0.49612268518518521</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>0.50605324074074076</v>
       </c>
-      <c r="H11" s="4">
-        <f>G11-F11</f>
+      <c r="H11" s="3">
+        <f t="shared" si="3"/>
         <v>9.9305555555555536E-3</v>
       </c>
-      <c r="I11" s="5">
-        <f t="shared" si="3"/>
+      <c r="I11" s="2">
+        <f t="shared" si="4"/>
         <v>858</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>100000</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
+        <f t="shared" si="5"/>
+        <v>0.50605324074074076</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.51982638888888888</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3773148148148118E-2</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>0.50605324074074076</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.51982638888888888</v>
-      </c>
-      <c r="H12" s="4">
-        <f>G12-F12</f>
-        <v>1.3773148148148118E-2</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="3"/>
         <v>1190</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>100000</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
+        <f t="shared" si="5"/>
+        <v>0.51982638888888888</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.5382986111111111</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8472222222222223E-2</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>0.51982638888888888</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.5382986111111111</v>
-      </c>
-      <c r="H13" s="4">
-        <f>G13-F13</f>
-        <v>1.8472222222222223E-2</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="3"/>
         <v>1596</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>100000</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5382986111111111</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.56262731481481476</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
+        <v>2.4328703703703658E-2</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="4"/>
-        <v>0.5382986111111111</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.56262731481481476</v>
-      </c>
-      <c r="H14" s="4">
-        <f>G14-F14</f>
-        <v>2.4328703703703658E-2</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="3"/>
         <v>2102</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>100000</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>7</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
+        <f t="shared" si="5"/>
+        <v>0.56262731481481476</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.59403935185185186</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1412037037037099E-2</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="4"/>
-        <v>0.56262731481481476</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.59403935185185186</v>
-      </c>
-      <c r="H15" s="4">
-        <f>G15-F15</f>
-        <v>3.1412037037037099E-2</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="3"/>
         <v>2714</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>100000</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="2">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
+        <f t="shared" si="5"/>
+        <v>0.59403935185185186</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.63244212962962965</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
+        <v>3.8402777777777786E-2</v>
+      </c>
+      <c r="I16" s="2">
         <f t="shared" si="4"/>
-        <v>0.59403935185185186</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.63244212962962965</v>
-      </c>
-      <c r="H16" s="4">
-        <f>G16-F16</f>
-        <v>3.8402777777777786E-2</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="3"/>
         <v>3318</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>100000</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>9</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
+        <f t="shared" si="5"/>
+        <v>0.63244212962962965</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.67791666666666661</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
+        <v>4.5474537037036966E-2</v>
+      </c>
+      <c r="I17" s="2">
         <f t="shared" si="4"/>
-        <v>0.63244212962962965</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.67791666666666661</v>
-      </c>
-      <c r="H17" s="4">
-        <f>G17-F17</f>
-        <v>4.5474537037036966E-2</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="3"/>
         <v>3929</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>100000</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>10</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
+        <f t="shared" si="5"/>
+        <v>0.67791666666666661</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.73486111111111108</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="3"/>
+        <v>5.6944444444444464E-2</v>
+      </c>
+      <c r="I18" s="2">
         <f t="shared" si="4"/>
-        <v>0.67791666666666661</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.73486111111111108</v>
-      </c>
-      <c r="H18" s="4">
-        <f>G18-F18</f>
-        <v>5.6944444444444464E-2</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="3"/>
         <v>4920</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>100000</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>11</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
+        <f t="shared" si="5"/>
+        <v>0.73486111111111108</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.80268518518518517</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="3"/>
+        <v>6.7824074074074092E-2</v>
+      </c>
+      <c r="I19" s="2">
         <f t="shared" si="4"/>
-        <v>0.73486111111111108</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.80268518518518517</v>
-      </c>
-      <c r="H19" s="4">
-        <f>G19-F19</f>
-        <v>6.7824074074074092E-2</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="3"/>
         <v>5860</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>100000</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>12</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
+        <f t="shared" si="5"/>
+        <v>0.80268518518518517</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.8878125</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5127314814814836E-2</v>
+      </c>
+      <c r="I20" s="2">
         <f t="shared" si="4"/>
-        <v>0.80268518518518517</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.8878125</v>
-      </c>
-      <c r="H20" s="4">
-        <f>G20-F20</f>
-        <v>8.5127314814814836E-2</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="3"/>
         <v>7355</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>100000</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>13</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8878125</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.99046296296296299</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10265046296296299</v>
+      </c>
+      <c r="I21" s="2">
         <f t="shared" si="4"/>
-        <v>0.8878125</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.99046296296296299</v>
-      </c>
-      <c r="H21" s="4">
-        <f>G21-F21</f>
-        <v>0.10265046296296299</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="3"/>
         <v>8869</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>100000</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>14</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99046296296296299</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.1197569444444444</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12929398148148141</v>
+      </c>
+      <c r="I22" s="2">
         <f t="shared" si="4"/>
-        <v>0.99046296296296299</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1.1197569444444444</v>
-      </c>
-      <c r="H22" s="4">
-        <f>G22-F22</f>
-        <v>0.12929398148148141</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="3"/>
         <v>11171</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>10000</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>2</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="8">
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1">
         <v>1.3773148148148147E-3</v>
       </c>
-      <c r="I23" s="9">
-        <f t="shared" si="3"/>
+      <c r="I23">
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>10000</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1">
         <v>3.9467592592592592E-3</v>
       </c>
-      <c r="I24" s="9">
-        <f t="shared" si="3"/>
+      <c r="I24">
+        <f t="shared" si="4"/>
         <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>10000</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
         <v>6</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1">
         <v>9.9074074074074082E-3</v>
       </c>
-      <c r="I25" s="9">
-        <f t="shared" si="3"/>
+      <c r="I25">
+        <f t="shared" si="4"/>
         <v>856</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>10000</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>8</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="8">
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
         <v>2.0358796296296295E-2</v>
       </c>
-      <c r="I26" s="9">
-        <f t="shared" si="3"/>
+      <c r="I26">
+        <f t="shared" si="4"/>
         <v>1759</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>10000</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27">
         <v>10</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1">
         <v>3.7025462962962961E-2</v>
       </c>
-      <c r="I27" s="9">
-        <f t="shared" si="3"/>
+      <c r="I27">
+        <f t="shared" si="4"/>
         <v>3199</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>10000</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>12</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1">
         <v>5.5185185185185191E-2</v>
       </c>
-      <c r="I28" s="9">
-        <f t="shared" si="3"/>
+      <c r="I28">
+        <f t="shared" si="4"/>
         <v>4768</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>10000</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29">
         <v>14</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1">
         <v>0.10125000000000001</v>
       </c>
-      <c r="I29" s="9">
-        <f t="shared" si="3"/>
+      <c r="I29">
+        <f t="shared" si="4"/>
         <v>8748</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>10000</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>16</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9">
-        <f t="shared" si="3"/>
+      <c r="F30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>10000</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31">
         <v>18</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9">
-        <f t="shared" si="3"/>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>10000</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>20</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="9">
-        <f t="shared" si="3"/>
+      <c r="F32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <f t="shared" ref="A33:A42" si="5">3*D33</f>
+      <c r="A33" s="2">
+        <f t="shared" ref="A33:A42" si="6">3*D33</f>
         <v>30</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>10000</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>1</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>10</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
         <v>1.0069444444444444E-3</v>
       </c>
-      <c r="I33" s="5">
-        <f t="shared" si="3"/>
+      <c r="I33" s="2">
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <f t="shared" si="5"/>
+      <c r="A34" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>10000</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>1</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>10</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>2</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="F34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="3">
         <v>1.736111111111111E-3</v>
       </c>
-      <c r="I34" s="5">
-        <f t="shared" si="3"/>
+      <c r="I34" s="2">
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <f t="shared" si="5"/>
+      <c r="A35" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>10000</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>1</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>10</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>3</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3">
         <v>2.3379629629629631E-3</v>
       </c>
-      <c r="I35" s="5">
-        <f t="shared" si="3"/>
+      <c r="I35" s="2">
+        <f t="shared" si="4"/>
         <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <f t="shared" si="5"/>
+      <c r="A36" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>10000</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>1</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>10</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>4</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="F36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="3">
         <v>2.7546296296296294E-3</v>
       </c>
-      <c r="I36" s="5">
-        <f t="shared" si="3"/>
+      <c r="I36" s="2">
+        <f t="shared" si="4"/>
         <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <f t="shared" si="5"/>
+      <c r="A37" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>10000</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>1</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>5</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="F37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="3">
         <v>3.4606481481481485E-3</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="2">
         <f>HOUR(H37)*3600+MINUTE(H37)*60+SECOND(H37)</f>
         <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <f t="shared" si="5"/>
+      <c r="A38" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>10000</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>1</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>10</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>6</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="F38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="3">
         <v>4.108796296296297E-3</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="2">
         <f>HOUR(H38)*3600+MINUTE(H38)*60+SECOND(H38)</f>
         <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <f t="shared" si="5"/>
+      <c r="A39" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>10000</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>1</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>10</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>7</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="F39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="3">
         <v>4.9189814814814816E-3</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="2">
         <f>HOUR(H39)*3600+MINUTE(H39)*60+SECOND(H39)</f>
         <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <f t="shared" si="5"/>
+      <c r="A40" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>10000</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>1</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>10</v>
       </c>
-      <c r="E40" s="3">
-        <v>8</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="E40" s="2">
+        <v>8</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="3">
         <v>5.6134259259259271E-3</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="2">
         <f>HOUR(H40)*3600+MINUTE(H40)*60+SECOND(H40)</f>
         <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <f t="shared" si="5"/>
+      <c r="A41" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>10000</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>1</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>10</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>9</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3">
         <v>8.3217592592592596E-3</v>
       </c>
-      <c r="I41" s="5">
-        <f t="shared" si="3"/>
+      <c r="I41" s="2">
+        <f t="shared" si="4"/>
         <v>719</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <f t="shared" si="5"/>
+      <c r="A42" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>10000</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>1</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>10</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>10</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
         <v>1.0532407407407407E-2</v>
       </c>
-      <c r="I42" s="5">
-        <f t="shared" si="3"/>
+      <c r="I42" s="2">
+        <f t="shared" si="4"/>
         <v>910</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <f t="shared" ref="A43:A52" si="6">3*D43</f>
+      <c r="A43">
+        <f t="shared" ref="A43:A52" si="7">3*D43</f>
         <v>30</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43">
         <v>10000</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43">
         <v>10</v>
       </c>
       <c r="E43">
         <f>INT(D43/C43)</f>
         <v>10</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="9">
-        <f t="shared" si="3"/>
+      <c r="F43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <f t="shared" si="6"/>
+      <c r="A44">
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44">
         <v>10000</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44">
         <v>10</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44:E52" si="7">INT(D44/C44)</f>
+        <f t="shared" ref="E44:E52" si="8">INT(D44/C44)</f>
         <v>5</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="9">
-        <f t="shared" si="3"/>
+      <c r="F44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <f t="shared" si="6"/>
+      <c r="A45">
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45">
         <v>10000</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45">
         <v>10</v>
       </c>
       <c r="E45">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="9">
-        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <v>10000</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <f t="shared" si="6"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B47">
         <v>10000</v>
       </c>
-      <c r="C46" s="7">
-        <v>4</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="E46">
+      <c r="E47">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="9">
-        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>10000</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <f t="shared" si="6"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B49">
         <v>10000</v>
       </c>
-      <c r="C47" s="7">
-        <v>5</v>
-      </c>
-      <c r="D47" s="7">
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E49">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="9">
-        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B50">
+        <v>10000</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <f t="shared" si="6"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B51">
         <v>10000</v>
       </c>
-      <c r="C48" s="7">
-        <v>6</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
         <v>10</v>
       </c>
-      <c r="E48">
+      <c r="E51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
         <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>10000</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="B49" s="7">
-        <v>10000</v>
-      </c>
-      <c r="C49" s="7">
-        <v>7</v>
-      </c>
-      <c r="D49" s="7">
-        <v>10</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="B50" s="7">
-        <v>10000</v>
-      </c>
-      <c r="C50" s="7">
-        <v>8</v>
-      </c>
-      <c r="D50" s="7">
-        <v>10</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="B51" s="7">
-        <v>10000</v>
-      </c>
-      <c r="C51" s="7">
-        <v>9</v>
-      </c>
-      <c r="D51" s="7">
-        <v>10</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="B52" s="7">
-        <v>10000</v>
-      </c>
-      <c r="C52" s="7">
-        <v>10</v>
-      </c>
-      <c r="D52" s="7">
-        <v>10</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="9">
-        <f t="shared" si="3"/>
+      <c r="F52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4932,4 +5019,142 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5815FB1C-01F7-49E2-8AAB-C12AC0BB16D0}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A03AB20-A8E0-49A7-A0C5-DD163F277D99}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Timings code.xlsx
+++ b/Timings code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik.recio\Documents\GitHub\RFF_vs_PQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6C74DF-B4E5-4AFE-A61E-418EC7C0D3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29A505-7FA5-4354-BB52-FE7FCB139825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{7E53485C-EDC3-458F-86D5-AC3C46711E37}"/>
+    <workbookView xWindow="4935" yWindow="1200" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{7E53485C-EDC3-458F-86D5-AC3C46711E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t>n</t>
   </si>
@@ -106,16 +106,13 @@
     <t>Ordenar experiments, treuren conclusions, presentar conclusions</t>
   </si>
   <si>
-    <t>llegir i respondre a Ryan</t>
-  </si>
-  <si>
     <t>llegir i modificar comments Johannes sobre apartats 6 i 7</t>
   </si>
   <si>
     <t>dim_x</t>
   </si>
   <si>
-    <t>- Posar max, min RKHS + sqrt(omega**d)*max inf als plots de RKHS</t>
+    <t>- Posar mean, max, min RKHS + sqrt(omega**d)*max inf als plots de RKHS</t>
   </si>
 </sst>
 </file>
@@ -5025,7 +5022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5815FB1C-01F7-49E2-8AAB-C12AC0BB16D0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5033,7 +5030,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -5128,8 +5125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A03AB20-A8E0-49A7-A0C5-DD163F277D99}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5141,17 +5138,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
